--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/Timeline_03_10.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/Timeline_03_10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F9506-D534-4316-8270-31E94F9A0FBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1348F6-C884-4FE1-AA0D-AA40EDA2201D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OrderDetails!$G$1:$G$275</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">[1]Products!$B$1</definedName>
+    <definedName name="NativeTimeline_Date_of_Purchase">#N/A</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId5"/>
+      </x15:timelineCacheRefs>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -42,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="249">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,10 +794,10 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Sum of Total Price</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
   </si>
 </sst>
 </file>
@@ -796,7 +805,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -842,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,10 +865,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -881,6 +890,88 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>122704</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21851</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72838</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Date of Purchase">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB40254B-BA27-42E3-88C9-9CF92694539E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Date of Purchase"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2425513" y="415738"/>
+              <a:ext cx="3333750" cy="1371600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-GT" sz="1100"/>
+                <a:t>Línea de tiempo: Funciona en Excel 2013 o superior. No mover ni cambiar el tamaño.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4883,8 +4974,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -5314,12 +5405,9 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -5338,9 +5426,26 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Price" fld="9" baseField="4" baseItem="0" numFmtId="44"/>
+    <dataField name="Sum of Total Price" fld="9" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium8" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="3" type="dateBetween" evalOrder="-1" id="2" name="Date of Purchase">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="42856"/>
+            <customFilter operator="lessThanOrEqual" val="42886"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5375,7 +5480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5669,15 +5774,33 @@
 </a:theme>
 </file>
 
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_Date_of_Purchase" xr10:uid="{C028B225-F770-4148-ADDA-D7721DB19E61}" sourceName="Date of Purchase">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1353726348" filterType="dateBetween">
+    <selection startDate="2017-05-01T00:00:00" endDate="2017-05-31T00:00:00"/>
+    <bounds startDate="2017-01-01T00:00:00" endDate="2019-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="Date of Purchase" xr10:uid="{47833F30-4DAF-4303-9746-A40571AA375C}" cache="NativeTimeline_Date_of_Purchase" caption="Date of Purchase" level="2" selectionLevel="2" scrollPosition="2017-01-01T00:00:00"/>
+</timelines>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2D221A-1F93-4E8D-B1BD-A9CD4616FBDE}">
-  <dimension ref="A3:B9"/>
+  <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -5749,10 +5872,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5760,52 +5883,52 @@
         <v>208</v>
       </c>
       <c r="B4" s="5">
-        <v>1219092.75</v>
+        <v>137551</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="5">
-        <v>3586923</v>
+        <v>431.8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="5">
-        <v>8961.7000000000025</v>
+        <v>365.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" s="5">
-        <v>11108.969999999998</v>
+        <v>13605.7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B8" s="5">
-        <v>295106.04000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="5">
-        <v>307043</v>
+        <v>7692</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId4"/>
+      </x15:timelineRefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5817,7 +5940,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
